--- a/medicine/Enfance/Alain_Gagnol/Alain_Gagnol.xlsx
+++ b/medicine/Enfance/Alain_Gagnol/Alain_Gagnol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Gagnol, né le 13 mai 1967 à Roanne (Loire), est un romancier, scénariste et réalisateur de cinéma d'animation français.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alain Gagnol étudie à l'école Émile-Cohl à Lyon, pour commencer l'animation en 1988 au studio Folimage à Bourg-lès-Valence. Depuis, il a co-réalisé avec Jean-Loup Felicioli plusieurs courts-métrages et trois longs-métrages, dont Une vie de chat, sorti en France le 15 décembre 2010 et nommé à la 36e cérémonie des César en 2011 et à la 84e cérémonie des Oscars en 2012.
 Il est aussi romancier et a publié des polars pour les adultes et des romans jeunesse. 
@@ -545,62 +559,174 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Courts métrages
-1995 : L'Égoïste
+          <t>Courts métrages</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>1995 : L'Égoïste
 1998 : Les Tragédies minuscules
 2001 : Le Nez à la fenêtre
 2005 : Le Couloir
 2006 : Mauvais temps
 2015 : Un Plan d'enfer
-2018 : La solitude est un animal de compagnie
-Longs métrages
-2010 : Une vie de chat, scénariste, co-réalisateur avec Jean-Loup Felicioli
+2018 : La solitude est un animal de compagnie</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Longs métrages</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2010 : Une vie de chat, scénariste, co-réalisateur avec Jean-Loup Felicioli
 2015 : Phantom Boy, scénariste, co-réalisateur avec Jean-Loup Felicioli
 2023 : Nina et le secret du hérisson, scénariste, co-réalisateur avec Jean-Loup Felicioli
 2023 : Sirocco et le royaume des courants d'air, scénariste</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Alain_Gagnol</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Gagnol</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Romans
-1995 : M'sieur, Éditions Gallimard, coll. « Série noire » no 2385
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1995 : M'sieur, Éditions Gallimard, coll. « Série noire » no 2385
 1997 : Les Lumières de frigo, Éditions Gallimard, coll. « Série noire » no 2444
 2000 : Est-ce que les aveugles sont plus malheureux que les sourds ?, Éditions Gallimard, coll. « La Noire »
 2002 : La Femme patiente, Éditions Le Cherche midi
 2004 : Axel et Joséphine, Éditions Le Cherche midi
-2014 : Un fantôme dans la tête, Éditions Le Passeur
-Nouvelles
-1995 : Qu'est-ce qui les fait rire ?, dans le recueil Noces d'or 1945-1995, Éditions Gallimard, coll. « Série noire »  non numéroté
+2014 : Un fantôme dans la tête, Éditions Le Passeur</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>1995 : Qu'est-ce qui les fait rire ?, dans le recueil Noces d'or 1945-1995, Éditions Gallimard, coll. « Série noire »  non numéroté
 1995 : Quoi ?, dans le recueil Petites Nouvelles de l'Urubu
 2002 : Retour à la case départ, Projet noir no 1
-2005 : Je ne me vois pas tomber, Lyon découverte hors-série
-Littérature d'enfance et de jeunesse
-2005 : Léon à peur, Magnard, coll. « Jeunesse »
+2005 : Je ne me vois pas tomber, Lyon découverte hors-série</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alain_Gagnol</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Ouvrages</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2005 : Léon à peur, Magnard, coll. « Jeunesse »
 2005 : Pire que terrible, Magnard, coll. « Jeunesse »
 2017 : série Power Club, Syros
 L'Apprentissage, 2017
@@ -610,31 +736,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
         <is>
           <t>Alain_Gagnol</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alain_Gagnol</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Distinctions et nominations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>1996 : Prix du Court Métrage au festival Cinanima d'Espinho pour L'Égoïste
 1996 : Grand Prix au Festival National du Film d'Animation Marly pour L'Égoïste
@@ -649,7 +777,7 @@
 2011 : Retenu en sélection officielle du Festival international du film d'animation d'Annecy pour Une vie de chat
 2011 : Prix Animation de la SACD pour Une vie de chat
 2012 : Nomination pour le meilleur film d'animation aux Oscars 2012 pour Une vie de chat
-Sélection Prix Vendredi 2017[1] pour  Power club, Vol. 1 : L’apprentissage</t>
+Sélection Prix Vendredi 2017 pour  Power club, Vol. 1 : L’apprentissage</t>
         </is>
       </c>
     </row>
